--- a/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/248.xlsx
+++ b/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/248.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonScript\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumu\Desktop\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2271048-BB39-4393-8CC8-E53AF17DB8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBC802-94AD-4737-BBF1-532170EDEEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
+    <workbookView xWindow="2304" yWindow="948" windowWidth="9444" windowHeight="12012" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
   </bookViews>
   <sheets>
     <sheet name="160" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160'!$A$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160'!$A$1:$C$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -90,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="327">
   <si>
     <t>ボーグ</t>
   </si>
@@ -686,466 +684,411 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（株）ジーエムサービス</t>
-  </si>
-  <si>
-    <t>沖元　清香</t>
-  </si>
-  <si>
-    <t>新田　　智代</t>
-  </si>
-  <si>
-    <t>Ｍｏｚルームコンサル（株）</t>
-  </si>
-  <si>
-    <t>メディアワークス（株）</t>
-  </si>
-  <si>
-    <t>沖政　賢太</t>
-  </si>
-  <si>
-    <t>（有）バンセイ</t>
-  </si>
-  <si>
-    <t>谷　雄二</t>
-  </si>
-  <si>
-    <t>（有）ラ・セッテ</t>
-  </si>
-  <si>
-    <t>（有）連合設備設計</t>
-  </si>
-  <si>
-    <t>末川　洋平</t>
-  </si>
-  <si>
-    <t>森本　良</t>
-  </si>
-  <si>
-    <t>三宅　將城</t>
-  </si>
-  <si>
-    <t>渡辺　八栄子</t>
-  </si>
-  <si>
-    <t>木下　雄樹</t>
-  </si>
-  <si>
-    <t>藤原　延明</t>
-  </si>
-  <si>
-    <t>玖田　リサ</t>
-  </si>
-  <si>
-    <t>（有）龍野畳商会</t>
-  </si>
-  <si>
-    <t>松浦　翔馬</t>
-  </si>
-  <si>
-    <t>（株）青葉</t>
-  </si>
-  <si>
-    <t>（株）エムケイサービス</t>
-  </si>
-  <si>
-    <t>田中　さやか</t>
-  </si>
-  <si>
-    <t>辻　裕二</t>
-  </si>
-  <si>
-    <t>(株)森川建設</t>
-  </si>
-  <si>
-    <t>（有）光南園</t>
-  </si>
-  <si>
-    <t>神安　雅哉</t>
-  </si>
-  <si>
-    <t>Ｄｏ－Ｂｒｏｓ（株）</t>
-  </si>
-  <si>
-    <t>純薬（株）</t>
-  </si>
-  <si>
-    <t>（株）フジ設備</t>
-  </si>
-  <si>
-    <t>川崎　弘人</t>
-  </si>
-  <si>
-    <t>西藤　優</t>
-  </si>
-  <si>
-    <t>長谷　千尋</t>
-  </si>
-  <si>
-    <t>大西　哲</t>
-  </si>
-  <si>
-    <t>矢吹　勇紀</t>
-  </si>
-  <si>
-    <t>（株）型美工務</t>
-  </si>
-  <si>
-    <t>（株）広松</t>
-  </si>
-  <si>
-    <t>未来夢（株）</t>
-  </si>
-  <si>
-    <t>原田　総子</t>
-  </si>
-  <si>
-    <t>吉森　将典</t>
-  </si>
-  <si>
-    <t>西本　文登</t>
-  </si>
-  <si>
-    <t>（株）Ｓ－ＴＲＥＬＬＡ</t>
-  </si>
-  <si>
-    <t>（株）FIORE</t>
-  </si>
-  <si>
-    <t>（株）ミシロ</t>
-  </si>
-  <si>
-    <t>典工(株)</t>
-  </si>
-  <si>
-    <t>（株）Ｋｅｙ－ｓｔｏｎｅ</t>
-  </si>
-  <si>
-    <t>船越　一治</t>
-  </si>
-  <si>
-    <t>（株）伍車興業</t>
-  </si>
-  <si>
-    <t>古川　武晴</t>
-  </si>
-  <si>
-    <t>臺　美智子</t>
-  </si>
-  <si>
-    <t>（株）Ｋ－ライン</t>
-  </si>
-  <si>
-    <t>（株）康工業</t>
-  </si>
-  <si>
-    <t>（株）ヒロ開発</t>
-  </si>
-  <si>
-    <t>（株）ＮＫ</t>
-  </si>
-  <si>
-    <t>（株）真尚興業</t>
-  </si>
-  <si>
-    <t>大田　仁</t>
-  </si>
-  <si>
-    <t>田本　俊幸</t>
-  </si>
-  <si>
-    <t>森澤　章</t>
-  </si>
-  <si>
-    <t>光山　豊文</t>
-  </si>
-  <si>
-    <t>（株）塚本鉄工所</t>
-  </si>
-  <si>
-    <t>日本クリエイト（株）</t>
-  </si>
-  <si>
-    <t>山本　高生</t>
-  </si>
-  <si>
-    <t>（株）サンエスシステム</t>
-  </si>
-  <si>
-    <t>山崎　賢治</t>
-  </si>
-  <si>
-    <t>（同）ひなた商店</t>
-  </si>
-  <si>
-    <t>薮　日吉</t>
-  </si>
-  <si>
-    <t>（株）広島テクニック</t>
-  </si>
-  <si>
-    <t>（株）日本オートモーティブマーケティングサービス</t>
-  </si>
-  <si>
-    <t>（株）Ｙ．Ｋ．Ｆ</t>
-  </si>
-  <si>
-    <t>（株）カー・ドクターＴ３</t>
-  </si>
-  <si>
-    <t>（株）スリーピース</t>
-  </si>
-  <si>
-    <t>（有）ゼスト</t>
-  </si>
-  <si>
-    <t>川口　祥弥</t>
-  </si>
-  <si>
-    <t>（有）木村工業</t>
-  </si>
-  <si>
-    <t>（有）トチギ</t>
-  </si>
-  <si>
-    <t>（同）エム・プラス</t>
-  </si>
-  <si>
-    <t>（合）タイズ</t>
-  </si>
-  <si>
-    <t>河野　国博</t>
-  </si>
-  <si>
-    <t>福間　　佐登志</t>
-  </si>
-  <si>
-    <t>（株）食団四季</t>
-  </si>
-  <si>
-    <t>山口　正光</t>
-  </si>
-  <si>
-    <t>沖　里美</t>
-  </si>
-  <si>
-    <t>（株）エーテックサービス</t>
-  </si>
-  <si>
-    <t>（株）ＹＩＳグループ</t>
-  </si>
-  <si>
-    <t>エル・キュービック（株）</t>
-  </si>
-  <si>
-    <t>（株）イーコム</t>
-  </si>
-  <si>
-    <t>（株）スラッガー</t>
-  </si>
-  <si>
-    <t>（株）カラーベース</t>
-  </si>
-  <si>
-    <t>（株）プロノテック</t>
-  </si>
-  <si>
-    <t>（株）ＳＰ折口自動車</t>
-  </si>
-  <si>
-    <t>（株）Ｎｅｘｔ　Ｄｒｅａｍ</t>
-  </si>
-  <si>
-    <t>（有）野武士</t>
-  </si>
-  <si>
-    <t>垰田　昴</t>
-  </si>
-  <si>
-    <t>（株）オーエフエー</t>
-  </si>
-  <si>
-    <t>善岡　文昭</t>
-  </si>
-  <si>
-    <t>（有）スフィアラボ</t>
-  </si>
-  <si>
-    <t>（株）SSS</t>
-  </si>
-  <si>
-    <t>山村　淳子</t>
-  </si>
-  <si>
-    <t>（株）谷村屋</t>
-  </si>
-  <si>
-    <t>（株）谷村寺社公社</t>
-  </si>
-  <si>
-    <t>ＨＲＴ（株）</t>
-  </si>
-  <si>
-    <t>（株）サンテック</t>
-  </si>
-  <si>
-    <t>三町　隆</t>
-  </si>
-  <si>
-    <t>（株）コニリア</t>
-  </si>
-  <si>
-    <t>中島　徹夫</t>
-  </si>
-  <si>
-    <t>（株）アライド</t>
-  </si>
-  <si>
-    <t>小林　剛</t>
-  </si>
-  <si>
-    <t>（有）ケイ・ティ・ティ</t>
-  </si>
-  <si>
-    <t>花藤　猛</t>
-  </si>
-  <si>
-    <t>(株)マコデン</t>
-  </si>
-  <si>
-    <t>(株)大塚塗装</t>
-  </si>
-  <si>
-    <t>（株）エス興業</t>
-  </si>
-  <si>
-    <t>（株）曙光</t>
-  </si>
-  <si>
-    <t>青田　渉</t>
-  </si>
-  <si>
-    <t>（株）Ｍｏｌｅ</t>
-  </si>
-  <si>
-    <t>冨士本　武士</t>
-  </si>
-  <si>
-    <t>（有）中川プロセス印刷</t>
-  </si>
-  <si>
-    <t>（株）アクティス</t>
-  </si>
-  <si>
-    <t>広島食人（株）</t>
-  </si>
-  <si>
-    <t>（株）エデュコム</t>
-  </si>
-  <si>
-    <t>宮井　久枝</t>
-  </si>
-  <si>
-    <t>（株）信輝</t>
-  </si>
-  <si>
-    <t>（株）ＪＡＰＡＮ　ＩＤＥＡＬ</t>
-  </si>
-  <si>
-    <t>伸和工業（有）</t>
-  </si>
-  <si>
-    <t>（株）福広</t>
-  </si>
-  <si>
-    <t>安藤　博</t>
-  </si>
-  <si>
-    <t>（株）ルード</t>
-  </si>
-  <si>
-    <t>第一システム（株）</t>
-  </si>
-  <si>
-    <t>渡辺　誠記</t>
-  </si>
-  <si>
-    <t>（医）若星会</t>
-  </si>
-  <si>
-    <t>（株）クレアネット</t>
-  </si>
-  <si>
-    <t>（有）カリノ建設</t>
-  </si>
-  <si>
-    <t>（株）義工業</t>
-  </si>
-  <si>
-    <t>（株）スマイルフィッシュ</t>
-  </si>
-  <si>
-    <t>（株）天恵グループ</t>
-  </si>
-  <si>
-    <t>（株）プログレス</t>
-  </si>
-  <si>
-    <t>大気テクノ（株）</t>
-  </si>
-  <si>
-    <t>（株）アール</t>
-  </si>
-  <si>
-    <t>大迫　佑也</t>
-  </si>
-  <si>
-    <t>（株）サポートアイ</t>
-  </si>
-  <si>
-    <t>（医）益田歯科クリニック</t>
-  </si>
-  <si>
-    <t>辻山　嘉孝</t>
-  </si>
-  <si>
-    <t>行保　末子</t>
-  </si>
-  <si>
-    <t>田中　一正</t>
-  </si>
-  <si>
-    <t>（有）ＵＳＥ</t>
-  </si>
-  <si>
-    <t>（有）たけだ工業所</t>
-  </si>
-  <si>
-    <t>（株）和</t>
-  </si>
-  <si>
-    <t>岡田自動車（株）</t>
+    <t>摘要</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（有）竹井商事</t>
+  </si>
+  <si>
+    <t>（有）武田建工</t>
   </si>
   <si>
     <t>（有）山陽テープ</t>
   </si>
   <si>
-    <t>君原　　武頼</t>
-  </si>
-  <si>
-    <t>森川電業（株）</t>
-  </si>
-  <si>
-    <t>米川　定子</t>
-  </si>
-  <si>
-    <t>（株）奥本卓也建築設計事務所</t>
-  </si>
-  <si>
-    <t>西田　雅彦</t>
-  </si>
-  <si>
-    <t>免出　友子</t>
+    <t>（株）アイケイ総合</t>
+  </si>
+  <si>
+    <t>（株）エスアイカンパニー</t>
+  </si>
+  <si>
+    <t>（医）玖珂クリニック</t>
+  </si>
+  <si>
+    <t>西　彰子</t>
+  </si>
+  <si>
+    <t>（有）佐々木弘工務店</t>
+  </si>
+  <si>
+    <t>アイランドステーション（株）</t>
+  </si>
+  <si>
+    <t>（株）Ｒｏｃｋ</t>
+  </si>
+  <si>
+    <t>（株）AK</t>
+  </si>
+  <si>
+    <t>安佐北モータース（株）</t>
+  </si>
+  <si>
+    <t>（有）土井電機制御</t>
+  </si>
+  <si>
+    <t>（株）ＮＫ興産</t>
+  </si>
+  <si>
+    <t>泉谷　幸広</t>
+  </si>
+  <si>
+    <t>（株）ＭＩＵＲＡ</t>
+  </si>
+  <si>
+    <t>（有）吉田設備</t>
+  </si>
+  <si>
+    <t>（株）ＣＯＬＯＲＦＵＬ</t>
+  </si>
+  <si>
+    <t>武安　享</t>
+  </si>
+  <si>
+    <t>藤井　清高</t>
+  </si>
+  <si>
+    <t>佐々木　崇</t>
+  </si>
+  <si>
+    <t>西澤　徳智</t>
+  </si>
+  <si>
+    <t>川口　弘美</t>
+  </si>
+  <si>
+    <t>川﨑　雅美</t>
+  </si>
+  <si>
+    <t>（有）マツセイ鉄工所</t>
+  </si>
+  <si>
+    <t>（有）ソラノビル</t>
+  </si>
+  <si>
+    <t>（株）勝組</t>
+  </si>
+  <si>
+    <t>島津江　勝之</t>
+  </si>
+  <si>
+    <t>エヌ・エス・コーポレーション（株）</t>
+  </si>
+  <si>
+    <t>（株）小松塗装店</t>
+  </si>
+  <si>
+    <t>増本　光治</t>
+  </si>
+  <si>
+    <t>ラフ（株）</t>
+  </si>
+  <si>
+    <t>河角　憲司</t>
+  </si>
+  <si>
+    <t>（株）UNITED</t>
+  </si>
+  <si>
+    <t>（株）昇和建設</t>
+  </si>
+  <si>
+    <t>(株)インテリアエム</t>
+  </si>
+  <si>
+    <t>（株）斉藤商会</t>
+  </si>
+  <si>
+    <t>（株）ＧＯＬＤ</t>
+  </si>
+  <si>
+    <t>（株）ファインレック</t>
+  </si>
+  <si>
+    <t>山代　朗</t>
+  </si>
+  <si>
+    <t>中村　輝男</t>
+  </si>
+  <si>
+    <t>小島建興（株）</t>
+  </si>
+  <si>
+    <t>山本電工（同）</t>
+  </si>
+  <si>
+    <t>（有）エフコピー</t>
+  </si>
+  <si>
+    <t>（有）ケーオーテック</t>
+  </si>
+  <si>
+    <t>浅川　敏文</t>
+  </si>
+  <si>
+    <t>(株)フレックス</t>
+  </si>
+  <si>
+    <t>松尾　松平</t>
+  </si>
+  <si>
+    <t>焏原　達</t>
+  </si>
+  <si>
+    <t>（株）マッシュ</t>
+  </si>
+  <si>
+    <t>（有）キムラ工務店</t>
+  </si>
+  <si>
+    <t>小泉　光義</t>
+  </si>
+  <si>
+    <t>（株）信貴</t>
+  </si>
+  <si>
+    <t>（株）Ｌｕｐｉｎｕｓ</t>
+  </si>
+  <si>
+    <t>小島　千尋</t>
+  </si>
+  <si>
+    <t>鈴川　夏寿美</t>
+  </si>
+  <si>
+    <t>西田　和三</t>
+  </si>
+  <si>
+    <t>（株）SHOEI</t>
+  </si>
+  <si>
+    <t>竹内　知子</t>
+  </si>
+  <si>
+    <t>（株）エレシステム</t>
+  </si>
+  <si>
+    <t>（有）ウタニ</t>
+  </si>
+  <si>
+    <t>（株）クオリティ</t>
+  </si>
+  <si>
+    <t>愛商事（有）</t>
+  </si>
+  <si>
+    <t>（有）ｅｓｃｏｗｅｌｌ－ｌｉｎｅｄ</t>
+  </si>
+  <si>
+    <t>花田　浩司</t>
+  </si>
+  <si>
+    <t>（株）やまと</t>
+  </si>
+  <si>
+    <t>（有）殿林</t>
+  </si>
+  <si>
+    <t>（有）ディ・ルーム</t>
+  </si>
+  <si>
+    <t>（株）タニテック</t>
+  </si>
+  <si>
+    <t>eファクトリー（株）</t>
+  </si>
+  <si>
+    <t>（医）聴晴会</t>
+  </si>
+  <si>
+    <t>（株）青山工業</t>
+  </si>
+  <si>
+    <t>殿林物流サービス（株）</t>
+  </si>
+  <si>
+    <t>（株）木船総業</t>
+  </si>
+  <si>
+    <t>（株）サンシーモールド</t>
+  </si>
+  <si>
+    <t>（株）向井建工</t>
+  </si>
+  <si>
+    <t>（株）縁</t>
+  </si>
+  <si>
+    <t>井上　一平</t>
+  </si>
+  <si>
+    <t>（同）Ｔａｋｅ</t>
+  </si>
+  <si>
+    <t>受川　弘徳</t>
+  </si>
+  <si>
+    <t>萩原　義文</t>
+  </si>
+  <si>
+    <t>渕上　瑛士</t>
+  </si>
+  <si>
+    <t>森本　敦子</t>
+  </si>
+  <si>
+    <t>（株）シビックス</t>
+  </si>
+  <si>
+    <t>（株）フィールド</t>
+  </si>
+  <si>
+    <t>（有）クレヨン</t>
+  </si>
+  <si>
+    <t>（株）広島ハウジング</t>
+  </si>
+  <si>
+    <t>（株）ヨコロ</t>
+  </si>
+  <si>
+    <t>（株）Ｈｏｔ　Ｆｕｎ　Ａｕｔｏ　Ｃｕｓｔｏｍ</t>
+  </si>
+  <si>
+    <t>（株）オートズファクトリーミト</t>
+  </si>
+  <si>
+    <t>（有）和興空調</t>
+  </si>
+  <si>
+    <t>（株）フリーラックトレーディング</t>
+  </si>
+  <si>
+    <t>（有）丸忠工業</t>
+  </si>
+  <si>
+    <t>（株）フレア</t>
+  </si>
+  <si>
+    <t>（株）三洋石材</t>
+  </si>
+  <si>
+    <t>ソリッドアワー（株）</t>
+  </si>
+  <si>
+    <t>（有）藤田商店</t>
+  </si>
+  <si>
+    <t>（株）ＴＷＯ　ＦＡＣＥ</t>
+  </si>
+  <si>
+    <t>（株）ＡＬＬＥＧＲＡ</t>
+  </si>
+  <si>
+    <t>（株）Ｂａｔｕｒ</t>
+  </si>
+  <si>
+    <t>(株)ネクストアースコーポレーション</t>
+  </si>
+  <si>
+    <t>（有）新栄</t>
+  </si>
+  <si>
+    <t>吉岡　海童</t>
+  </si>
+  <si>
+    <t>（株）クローバー</t>
+  </si>
+  <si>
+    <t>池田　郁美</t>
+  </si>
+  <si>
+    <t>（株）アン</t>
+  </si>
+  <si>
+    <t>市川　博之</t>
+  </si>
+  <si>
+    <t>（株）ファストリメイク</t>
+  </si>
+  <si>
+    <t>本家　卓</t>
+  </si>
+  <si>
+    <t>（株）グローグッドコーポレーション</t>
+  </si>
+  <si>
+    <t>（同）Ｍ－ＧＡＲＡＧＥ</t>
+  </si>
+  <si>
+    <t>鳴戸　一郎</t>
+  </si>
+  <si>
+    <t>サンセイフーズ企業組合</t>
+  </si>
+  <si>
+    <t>三益物産（株）</t>
+  </si>
+  <si>
+    <t>渡錬　賢治</t>
+  </si>
+  <si>
+    <t>（株）シビル調査設計</t>
+  </si>
+  <si>
+    <t>（有）Ｍ＆Ａ</t>
+  </si>
+  <si>
+    <t>佐々木　孝子</t>
+  </si>
+  <si>
+    <t>（株）西川之企業</t>
+  </si>
+  <si>
+    <t>（株）ＦＳＫ</t>
+  </si>
+  <si>
+    <t>（株）ゆうき</t>
+  </si>
+  <si>
+    <t>（株）リペイ</t>
+  </si>
+  <si>
+    <t>請谷　ゆきな</t>
+  </si>
+  <si>
+    <t>松井　大二</t>
+  </si>
+  <si>
+    <t>木原　誠</t>
+  </si>
+  <si>
+    <t>（株）ＦＬＥＸ＆ＣＯ．</t>
+  </si>
+  <si>
+    <t>（株）陽心工業</t>
+  </si>
+  <si>
+    <t>（株）フジ興産</t>
+  </si>
+  <si>
+    <t>（有）アーム</t>
+  </si>
+  <si>
+    <t>事業復活支援金</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シエンキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1770,11 +1713,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}">
-  <dimension ref="A1:C338"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1783,7 +1724,7 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>193</v>
       </c>
@@ -1793,1739 +1734,1928 @@
       <c r="C1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="C2" s="11">
+        <v>50000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1960</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="2">
+        <v>198</v>
+      </c>
+      <c r="C3" s="11">
+        <v>25000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="11">
+        <v>25000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>904</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>373</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="11">
         <v>20000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>1294</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>471</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>566</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>9433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>941</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>233</v>
+      </c>
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>302</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>639</v>
+      </c>
+      <c r="B19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="11">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>903</v>
-      </c>
-      <c r="B5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>668</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="D20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>1392</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>1699</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>1803</v>
+      </c>
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>9593</v>
+      </c>
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>1565</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="D26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="D27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>851</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>9461</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>786</v>
+      </c>
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>691</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>1275</v>
+      </c>
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>372</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>1311</v>
+      </c>
+      <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>378</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>517</v>
+      </c>
+      <c r="B37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>961</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>930</v>
+      </c>
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>607</v>
+      </c>
+      <c r="B40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>237</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>1309</v>
+      </c>
+      <c r="B42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>1416</v>
+      </c>
+      <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>640</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>452</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>279</v>
+      </c>
+      <c r="B47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>1964</v>
+      </c>
+      <c r="B48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>9587</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>1768</v>
+      </c>
+      <c r="B50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
         <v>246</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C52" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>1878</v>
+      </c>
+      <c r="B54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>426</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>871</v>
+      </c>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>1402</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>1838</v>
+      </c>
+      <c r="B58" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>1552</v>
+      </c>
+      <c r="B59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>939</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>1793</v>
+      </c>
+      <c r="B61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>424</v>
+      </c>
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>9892</v>
+      </c>
+      <c r="B65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>324</v>
+      </c>
+      <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>562</v>
+      </c>
+      <c r="B68" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>315</v>
+      </c>
+      <c r="B70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>420</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>445</v>
+      </c>
+      <c r="B72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>496</v>
+      </c>
+      <c r="B73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>642</v>
+      </c>
+      <c r="B74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>9692</v>
+      </c>
+      <c r="B75" t="s">
+        <v>269</v>
+      </c>
+      <c r="C75" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>276</v>
+      </c>
+      <c r="B78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>264</v>
+      </c>
+      <c r="B79" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>1226</v>
+      </c>
+      <c r="B81" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>947</v>
+      </c>
+      <c r="B82" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>1362</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B84" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>1746</v>
+      </c>
+      <c r="B85" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B86" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>428</v>
+      </c>
+      <c r="B87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>427</v>
+      </c>
+      <c r="B88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>422</v>
+      </c>
+      <c r="B89" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D90" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>618</v>
+      </c>
+      <c r="B92" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>879</v>
+      </c>
+      <c r="B93" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>700</v>
+      </c>
+      <c r="B94" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>486</v>
+      </c>
+      <c r="B95" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D95" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>146</v>
+      </c>
+      <c r="B96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>187</v>
+      </c>
+      <c r="B97" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>257</v>
+      </c>
+      <c r="B98" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>547</v>
+      </c>
+      <c r="B99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>571</v>
+      </c>
+      <c r="B100" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>619</v>
+      </c>
+      <c r="B101" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>652</v>
+      </c>
+      <c r="B102" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>688</v>
+      </c>
+      <c r="B103" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D103" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>698</v>
+      </c>
+      <c r="B104" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>597</v>
+      </c>
+      <c r="B105" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>9485</v>
+      </c>
+      <c r="B106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D106" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>343</v>
+      </c>
+      <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B108" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D108" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>354</v>
+      </c>
+      <c r="B109" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D109" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B110" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>920</v>
+      </c>
+      <c r="B111" t="s">
+        <v>304</v>
+      </c>
+      <c r="C111" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>1763</v>
+      </c>
+      <c r="B112" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D112" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>270</v>
+      </c>
+      <c r="B113" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>536</v>
+      </c>
+      <c r="B114" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D114" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>1527</v>
+      </c>
+      <c r="B115" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3">
+        <v>907</v>
+      </c>
+      <c r="B116" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>906</v>
+      </c>
+      <c r="B117" t="s">
+        <v>310</v>
+      </c>
+      <c r="C117" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B118" t="s">
+        <v>311</v>
+      </c>
+      <c r="C118" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D118" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>240</v>
+      </c>
+      <c r="B119" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D119" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>667</v>
+      </c>
+      <c r="B120" t="s">
+        <v>313</v>
+      </c>
+      <c r="C120" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B121" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>210</v>
+      </c>
+      <c r="B122" t="s">
+        <v>315</v>
+      </c>
+      <c r="C122" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>736</v>
+      </c>
+      <c r="B123" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>918</v>
+      </c>
+      <c r="B124" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D124" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>97</v>
+      </c>
+      <c r="B125" t="s">
+        <v>318</v>
+      </c>
+      <c r="C125" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B126" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>1421</v>
+      </c>
+      <c r="B127" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D127" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>1827</v>
+      </c>
+      <c r="B128" t="s">
+        <v>321</v>
+      </c>
+      <c r="C128" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>535</v>
+      </c>
+      <c r="B129" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>984</v>
+      </c>
+      <c r="B130" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D130" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>202</v>
       </c>
-      <c r="C8" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1412</v>
-      </c>
-      <c r="B9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>837</v>
-      </c>
-      <c r="B10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>277</v>
-      </c>
-      <c r="B11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>1747</v>
-      </c>
-      <c r="B12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>1625</v>
-      </c>
-      <c r="B13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
-        <v>1079</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>1737</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>1974</v>
-      </c>
-      <c r="B16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>1447</v>
-      </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>1639</v>
-      </c>
-      <c r="B18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>1759</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>1182</v>
-      </c>
-      <c r="B21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>938</v>
-      </c>
-      <c r="B22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>1811</v>
-      </c>
-      <c r="B24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>1564</v>
-      </c>
-      <c r="B25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>980</v>
-      </c>
-      <c r="B26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>242</v>
-      </c>
-      <c r="B27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>1093</v>
-      </c>
-      <c r="B28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>701</v>
-      </c>
-      <c r="B29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>224</v>
-      </c>
-      <c r="B30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>375</v>
-      </c>
-      <c r="B31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>1299</v>
-      </c>
-      <c r="B32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>9294</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>1106</v>
-      </c>
-      <c r="B34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>1823</v>
-      </c>
-      <c r="B35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>1049</v>
-      </c>
-      <c r="B36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>1947</v>
-      </c>
-      <c r="B37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>381</v>
-      </c>
-      <c r="B38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>268</v>
-      </c>
-      <c r="B39" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>632</v>
-      </c>
-      <c r="B40" t="s">
-        <v>232</v>
-      </c>
-      <c r="C40" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>1306</v>
-      </c>
-      <c r="B41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>1918</v>
-      </c>
-      <c r="B42" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>1851</v>
-      </c>
-      <c r="B43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>666</v>
-      </c>
-      <c r="B44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>230</v>
-      </c>
-      <c r="B45" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>594</v>
-      </c>
-      <c r="B46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>357</v>
-      </c>
-      <c r="B48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3">
-        <v>1410</v>
-      </c>
-      <c r="B49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>281</v>
-      </c>
-      <c r="B50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>9295</v>
-      </c>
-      <c r="B51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>36201</v>
-      </c>
-      <c r="B52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>348</v>
-      </c>
-      <c r="B53" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>715</v>
-      </c>
-      <c r="B54" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>9981</v>
-      </c>
-      <c r="B55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>363</v>
-      </c>
-      <c r="B56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>852</v>
-      </c>
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>1399</v>
-      </c>
-      <c r="B58" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>1591</v>
-      </c>
-      <c r="B59" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>1865</v>
-      </c>
-      <c r="B60" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>1032</v>
-      </c>
-      <c r="B61" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>394</v>
-      </c>
-      <c r="B62" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="B131" t="s">
+        <v>324</v>
+      </c>
+      <c r="C131" s="11">
         <v>25000</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>766</v>
-      </c>
-      <c r="B63" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>1169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>256</v>
-      </c>
-      <c r="C64" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>212</v>
-      </c>
-      <c r="B65" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>1509</v>
-      </c>
-      <c r="B66" t="s">
-        <v>258</v>
-      </c>
-      <c r="C66" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>881</v>
-      </c>
-      <c r="B67" t="s">
-        <v>259</v>
-      </c>
-      <c r="C67" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>1524</v>
-      </c>
-      <c r="B68" t="s">
-        <v>260</v>
-      </c>
-      <c r="C68" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>336</v>
-      </c>
-      <c r="B69" t="s">
-        <v>261</v>
-      </c>
-      <c r="C69" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>699</v>
-      </c>
-      <c r="B70" t="s">
-        <v>262</v>
-      </c>
-      <c r="C70" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>771</v>
-      </c>
-      <c r="B71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>460</v>
-      </c>
-      <c r="B72" t="s">
-        <v>264</v>
-      </c>
-      <c r="C72" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>478</v>
-      </c>
-      <c r="B73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>22</v>
-      </c>
-      <c r="B74" t="s">
-        <v>266</v>
-      </c>
-      <c r="C74" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>1859</v>
-      </c>
-      <c r="B75" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>178</v>
-      </c>
-      <c r="B76" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>72</v>
-      </c>
-      <c r="B77" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>9580</v>
-      </c>
-      <c r="B78" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>9995</v>
-      </c>
-      <c r="B79" t="s">
-        <v>271</v>
-      </c>
-      <c r="C79" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>1029</v>
-      </c>
-      <c r="B80" t="s">
-        <v>272</v>
-      </c>
-      <c r="C80" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>1356</v>
-      </c>
-      <c r="B81" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>622</v>
-      </c>
-      <c r="B82" t="s">
-        <v>274</v>
-      </c>
-      <c r="C82" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>1869</v>
-      </c>
-      <c r="B83" t="s">
-        <v>275</v>
-      </c>
-      <c r="C83" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>9423</v>
-      </c>
-      <c r="B84" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>676</v>
-      </c>
-      <c r="B85" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>285</v>
-      </c>
-      <c r="B86" t="s">
-        <v>278</v>
-      </c>
-      <c r="C86" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>856</v>
-      </c>
-      <c r="B87" t="s">
-        <v>279</v>
-      </c>
-      <c r="C87" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>629</v>
-      </c>
-      <c r="B88" t="s">
-        <v>280</v>
-      </c>
-      <c r="C88" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>678</v>
-      </c>
-      <c r="B89" t="s">
-        <v>281</v>
-      </c>
-      <c r="C89" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>723</v>
-      </c>
-      <c r="B90" t="s">
-        <v>282</v>
-      </c>
-      <c r="C90" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>355</v>
-      </c>
-      <c r="B91" t="s">
-        <v>283</v>
-      </c>
-      <c r="C91" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>352</v>
-      </c>
-      <c r="B92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>901</v>
-      </c>
-      <c r="B93" t="s">
-        <v>285</v>
-      </c>
-      <c r="C93" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>65</v>
-      </c>
-      <c r="B94" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>1842</v>
-      </c>
-      <c r="B95" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>473</v>
-      </c>
-      <c r="B96" t="s">
-        <v>288</v>
-      </c>
-      <c r="C96" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>1875</v>
-      </c>
-      <c r="B97" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96702</v>
-      </c>
-      <c r="B98" t="s">
-        <v>290</v>
-      </c>
-      <c r="C98" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>677</v>
-      </c>
-      <c r="B99" t="s">
-        <v>291</v>
-      </c>
-      <c r="C99" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>1316</v>
-      </c>
-      <c r="B100" t="s">
-        <v>292</v>
-      </c>
-      <c r="C100" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>379</v>
-      </c>
-      <c r="B101" t="s">
-        <v>293</v>
-      </c>
-      <c r="C101" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>877</v>
-      </c>
-      <c r="B102" t="s">
-        <v>294</v>
-      </c>
-      <c r="C102" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>58</v>
-      </c>
-      <c r="B103" t="s">
-        <v>295</v>
-      </c>
-      <c r="C103" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>195</v>
-      </c>
-      <c r="B104" t="s">
-        <v>296</v>
-      </c>
-      <c r="C104" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>9283</v>
-      </c>
-      <c r="B105" t="s">
-        <v>161</v>
-      </c>
-      <c r="C105" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>1255</v>
-      </c>
-      <c r="B106" t="s">
-        <v>297</v>
-      </c>
-      <c r="C106" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>502</v>
-      </c>
-      <c r="B107" t="s">
-        <v>298</v>
-      </c>
-      <c r="C107" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>1926</v>
-      </c>
-      <c r="B108" t="s">
-        <v>299</v>
-      </c>
-      <c r="C108" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>364</v>
-      </c>
-      <c r="B109" t="s">
-        <v>300</v>
-      </c>
-      <c r="C109" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>1373</v>
-      </c>
-      <c r="B110" t="s">
-        <v>301</v>
-      </c>
-      <c r="C110" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>389</v>
-      </c>
-      <c r="B111" t="s">
-        <v>302</v>
-      </c>
-      <c r="C111" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>1313</v>
-      </c>
-      <c r="B112" t="s">
-        <v>303</v>
-      </c>
-      <c r="C112" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>206</v>
-      </c>
-      <c r="B113" t="s">
-        <v>304</v>
-      </c>
-      <c r="C113" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>588</v>
-      </c>
-      <c r="B114" t="s">
-        <v>305</v>
-      </c>
-      <c r="C114" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>716</v>
-      </c>
-      <c r="B115" t="s">
-        <v>306</v>
-      </c>
-      <c r="C115" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>958</v>
-      </c>
-      <c r="B116" t="s">
-        <v>307</v>
-      </c>
-      <c r="C116" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>1490</v>
-      </c>
-      <c r="B117" t="s">
-        <v>308</v>
-      </c>
-      <c r="C117" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>706</v>
-      </c>
-      <c r="B118" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>1697</v>
-      </c>
-      <c r="B119" t="s">
-        <v>310</v>
-      </c>
-      <c r="C119" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="3">
-        <v>254</v>
-      </c>
-      <c r="B120" t="s">
-        <v>311</v>
-      </c>
-      <c r="C120" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>849</v>
-      </c>
-      <c r="B121" t="s">
-        <v>312</v>
-      </c>
-      <c r="C121" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>332</v>
-      </c>
-      <c r="B122" t="s">
-        <v>313</v>
-      </c>
-      <c r="C122" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>584</v>
-      </c>
-      <c r="B123" t="s">
-        <v>314</v>
-      </c>
-      <c r="C123" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>1322</v>
-      </c>
-      <c r="B124" t="s">
-        <v>315</v>
-      </c>
-      <c r="C124" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>406</v>
-      </c>
-      <c r="B125" t="s">
-        <v>316</v>
-      </c>
-      <c r="C125" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>565</v>
-      </c>
-      <c r="B126" t="s">
-        <v>317</v>
-      </c>
-      <c r="C126" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>854</v>
-      </c>
-      <c r="B127" t="s">
-        <v>318</v>
-      </c>
-      <c r="C127" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>90</v>
-      </c>
-      <c r="B128" t="s">
-        <v>319</v>
-      </c>
-      <c r="C128" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>1845</v>
-      </c>
-      <c r="B129" t="s">
-        <v>320</v>
-      </c>
-      <c r="C129" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>173</v>
-      </c>
-      <c r="B130" t="s">
-        <v>321</v>
-      </c>
-      <c r="C130" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>458</v>
-      </c>
-      <c r="B131" t="s">
-        <v>322</v>
-      </c>
-      <c r="C131" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>1240</v>
+        <v>661</v>
       </c>
       <c r="B132" t="s">
-        <v>323</v>
-      </c>
-      <c r="C132" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>682</v>
-      </c>
-      <c r="B133" t="s">
-        <v>324</v>
-      </c>
-      <c r="C133" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>475</v>
-      </c>
-      <c r="B134" t="s">
         <v>325</v>
       </c>
-      <c r="C134" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>795</v>
-      </c>
-      <c r="B135" t="s">
-        <v>326</v>
-      </c>
-      <c r="C135" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>249</v>
-      </c>
-      <c r="B136" t="s">
-        <v>327</v>
-      </c>
-      <c r="C136" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>867</v>
-      </c>
-      <c r="B137" t="s">
-        <v>328</v>
-      </c>
-      <c r="C137" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>64</v>
-      </c>
-      <c r="B138" t="s">
-        <v>329</v>
-      </c>
-      <c r="C138" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>337</v>
-      </c>
-      <c r="B139" t="s">
-        <v>330</v>
-      </c>
-      <c r="C139" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>581</v>
-      </c>
-      <c r="B140" t="s">
-        <v>331</v>
-      </c>
-      <c r="C140" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>860</v>
-      </c>
-      <c r="B141" t="s">
-        <v>332</v>
-      </c>
-      <c r="C141" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>1546</v>
-      </c>
-      <c r="B142" t="s">
-        <v>333</v>
-      </c>
-      <c r="C142" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>694</v>
-      </c>
-      <c r="B143" t="s">
-        <v>334</v>
-      </c>
-      <c r="C143" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>197</v>
-      </c>
-      <c r="B144" t="s">
-        <v>335</v>
-      </c>
-      <c r="C144" s="2">
-        <v>30000</v>
-      </c>
+      <c r="C132" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D132" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3"/>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>1630</v>
-      </c>
-      <c r="B145" t="s">
-        <v>336</v>
-      </c>
-      <c r="C145" s="2">
-        <v>20000</v>
-      </c>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>1623</v>
-      </c>
-      <c r="B146" t="s">
-        <v>337</v>
-      </c>
-      <c r="C146" s="2">
-        <v>20000</v>
-      </c>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="3">
-        <v>1187</v>
-      </c>
-      <c r="B147" t="s">
-        <v>338</v>
-      </c>
-      <c r="C147" s="2">
-        <v>20000</v>
-      </c>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>518</v>
-      </c>
-      <c r="B148" t="s">
-        <v>339</v>
-      </c>
-      <c r="C148" s="2">
-        <v>30000</v>
-      </c>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>223</v>
-      </c>
-      <c r="B149" t="s">
-        <v>340</v>
-      </c>
-      <c r="C149" s="2">
-        <v>30000</v>
-      </c>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>943</v>
-      </c>
-      <c r="B150" t="s">
-        <v>341</v>
-      </c>
-      <c r="C150" s="2">
-        <v>30000</v>
-      </c>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>769</v>
-      </c>
-      <c r="B151" t="s">
-        <v>342</v>
-      </c>
-      <c r="C151" s="2">
-        <v>25000</v>
-      </c>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>229</v>
-      </c>
-      <c r="B152" t="s">
-        <v>343</v>
-      </c>
-      <c r="C152" s="2">
-        <v>5000</v>
-      </c>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>1214</v>
-      </c>
-      <c r="B153" t="s">
-        <v>344</v>
-      </c>
-      <c r="C153" s="2">
-        <v>20000</v>
-      </c>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>935</v>
-      </c>
-      <c r="B154" t="s">
-        <v>345</v>
-      </c>
-      <c r="C154" s="2">
-        <v>5000</v>
-      </c>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>1923</v>
-      </c>
-      <c r="B155" t="s">
-        <v>346</v>
-      </c>
-      <c r="C155" s="2">
-        <v>5000</v>
-      </c>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>781</v>
-      </c>
-      <c r="B156" t="s">
-        <v>347</v>
-      </c>
-      <c r="C156" s="2">
-        <v>5000</v>
-      </c>
+      <c r="A156" s="3"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>1538</v>
-      </c>
-      <c r="B157" t="s">
-        <v>348</v>
-      </c>
-      <c r="C157" s="2">
-        <v>5000</v>
-      </c>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>1333</v>
-      </c>
-      <c r="B158" t="s">
-        <v>349</v>
-      </c>
-      <c r="C158" s="2">
-        <v>15000</v>
-      </c>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3">
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="3"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="3:3">
@@ -3586,6 +3716,7 @@
       <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3">
+      <c r="A180" s="3"/>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3">
@@ -3598,7 +3729,6 @@
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="3"/>
       <c r="C184" s="2"/>
     </row>
     <row r="185" spans="1:3">
@@ -3878,6 +4008,7 @@
       <c r="C276" s="2"/>
     </row>
     <row r="277" spans="1:3">
+      <c r="A277" s="6"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3">
@@ -3890,7 +4021,6 @@
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="6"/>
       <c r="C281" s="2"/>
     </row>
     <row r="282" spans="1:3">
@@ -4020,28 +4150,28 @@
       <c r="C323" s="2"/>
     </row>
     <row r="324" spans="1:3">
+      <c r="A324" s="3"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3">
-      <c r="C325" s="2"/>
+      <c r="A325" s="7"/>
+      <c r="B325" s="8"/>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" spans="1:3">
-      <c r="C326" s="2"/>
+      <c r="C326" s="10"/>
     </row>
     <row r="327" spans="1:3">
-      <c r="C327" s="2"/>
+      <c r="C327" s="11"/>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="3"/>
-      <c r="C328" s="2"/>
+      <c r="C328" s="11"/>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="7"/>
-      <c r="B329" s="8"/>
-      <c r="C329" s="9"/>
+      <c r="C329" s="11"/>
     </row>
     <row r="330" spans="1:3">
-      <c r="C330" s="10"/>
+      <c r="C330" s="11"/>
     </row>
     <row r="331" spans="1:3">
       <c r="C331" s="11"/>
@@ -4053,27 +4183,15 @@
       <c r="C333" s="11"/>
     </row>
     <row r="334" spans="1:3">
-      <c r="C334" s="11"/>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="C335" s="11"/>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="C336" s="11"/>
-    </row>
-    <row r="337" spans="3:3">
-      <c r="C337" s="11"/>
-    </row>
-    <row r="338" spans="3:3">
-      <c r="C338" s="12"/>
+      <c r="C334" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C81" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}"/>
+  <autoFilter ref="A1:C78" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A338:A1048576 A3:A328">
+  <conditionalFormatting sqref="A334:A1048576 A3:A324">
     <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A329:A337">
+  <conditionalFormatting sqref="A325:A333">
     <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
@@ -4088,7 +4206,7 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{2ACAF4B9-4E2B-45E1-9FE8-D2C1DDB114D1}"/>
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64732" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64728" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
